--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="15600"/>
+    <workbookView xWindow="20" yWindow="5280" windowWidth="24940" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="MapObjectConf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>道具id</t>
   </si>
@@ -124,6 +124,22 @@
   </si>
   <si>
     <t>Prefabs/MapObj/bullet_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,11 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -528,7 +544,7 @@
     <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="70">
+    <row r="1" spans="1:6" ht="70">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +557,14 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -555,8 +577,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -569,8 +597,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -583,8 +617,14 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -597,8 +637,14 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -611,8 +657,14 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -625,8 +677,14 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -639,8 +697,14 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>2003</v>
       </c>
@@ -653,8 +717,14 @@
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>2004</v>
       </c>
@@ -667,8 +737,14 @@
       <c r="D10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2005</v>
       </c>
@@ -681,8 +757,14 @@
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>2006</v>
       </c>
@@ -695,8 +777,14 @@
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>3001</v>
       </c>
@@ -708,6 +796,12 @@
       </c>
       <c r="D13">
         <v>3</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="5280" windowWidth="24940" windowHeight="15600"/>
+    <workbookView xWindow="760" yWindow="2940" windowWidth="24940" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="MapObjectConf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>道具id</t>
   </si>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dieeffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,19 +540,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="70">
+    <row r="1" spans="1:7" ht="70">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,8 +572,11 @@
       <c r="F1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -583,8 +595,11 @@
       <c r="F2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -603,8 +618,11 @@
       <c r="F3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -623,8 +641,11 @@
       <c r="F4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -643,8 +664,11 @@
       <c r="F5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -663,8 +687,11 @@
       <c r="F6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -683,8 +710,11 @@
       <c r="F7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>60010011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -703,8 +733,11 @@
       <c r="F8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>60010011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2003</v>
       </c>
@@ -723,8 +756,11 @@
       <c r="F9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>60010011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2004</v>
       </c>
@@ -743,8 +779,11 @@
       <c r="F10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>60010011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>2005</v>
       </c>
@@ -763,8 +802,11 @@
       <c r="F11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>60010011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>2006</v>
       </c>
@@ -783,8 +825,11 @@
       <c r="F12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>60010011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>3001</v>
       </c>
@@ -802,6 +847,9 @@
       </c>
       <c r="F13">
         <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60010010</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="2940" windowWidth="24940" windowHeight="15600"/>
+    <workbookView xWindow="620" yWindow="940" windowWidth="23400" windowHeight="17720"/>
   </bookViews>
   <sheets>
     <sheet name="MapObjectConf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>道具id</t>
   </si>
@@ -37,101 +37,119 @@
   </si>
   <si>
     <t>prefabName</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>角色1</t>
+  </si>
+  <si>
+    <t>角色2</t>
+  </si>
+  <si>
+    <t>角色3</t>
+  </si>
+  <si>
+    <t>角色4</t>
+  </si>
+  <si>
+    <t>敌人1</t>
+  </si>
+  <si>
+    <t>敌人2</t>
+  </si>
+  <si>
+    <t>敌人3</t>
+  </si>
+  <si>
+    <t>敌人4</t>
+  </si>
+  <si>
+    <t>敌人5</t>
+  </si>
+  <si>
+    <t>敌人6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/role_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/role_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/role_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/role_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/enemy_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/enemy_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/enemy_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/enemy_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/enemy_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/enemy_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/bullet_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dieeffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>种类
 1角色
 2敌人
 3子弹
-4装饰</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>角色1</t>
-  </si>
-  <si>
-    <t>角色2</t>
-  </si>
-  <si>
-    <t>角色3</t>
-  </si>
-  <si>
-    <t>角色4</t>
-  </si>
-  <si>
-    <t>敌人1</t>
-  </si>
-  <si>
-    <t>敌人2</t>
-  </si>
-  <si>
-    <t>敌人3</t>
-  </si>
-  <si>
-    <t>敌人4</t>
-  </si>
-  <si>
-    <t>敌人5</t>
-  </si>
-  <si>
-    <t>敌人6</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/role_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/role_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/role_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/role_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/enemy_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/enemy_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/enemy_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/enemy_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/enemy_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/enemy_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/bullet_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
+4装饰
+5道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,15 +157,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dieeffect</t>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/Item/AmmoIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/Item/RadiationIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/Item/HeartIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/Item/FastForwardIcon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,8 +238,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -225,19 +263,23 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,20 +582,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="70">
+    <row r="1" spans="1:7" ht="84">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,16 +606,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -587,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -604,10 +646,10 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -627,10 +669,10 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -650,10 +692,10 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -673,10 +715,10 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -696,10 +738,10 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -719,10 +761,10 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -742,10 +784,10 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -765,10 +807,10 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -788,10 +830,10 @@
         <v>2005</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -811,10 +853,10 @@
         <v>2006</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -834,10 +876,10 @@
         <v>3001</v>
       </c>
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -850,6 +892,98 @@
       </c>
       <c r="G13">
         <v>60010010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>5001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>5002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>5003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>5004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
